--- a/Code/Results/Cases/Case_5_98/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_98/res_line/pl_mw.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.564464025988457</v>
+        <v>2.345887016753352</v>
       </c>
       <c r="C2">
-        <v>0.6916348405085841</v>
+        <v>0.313515615568889</v>
       </c>
       <c r="D2">
-        <v>0.02176494598607803</v>
+        <v>0.009519520851121399</v>
       </c>
       <c r="E2">
-        <v>0.02379684873171506</v>
+        <v>0.046411415139886</v>
       </c>
       <c r="F2">
-        <v>3.170720908663583</v>
+        <v>4.387006073177076</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I2">
-        <v>1.86654138811798</v>
+        <v>2.666097054353429</v>
       </c>
       <c r="J2">
-        <v>0.06265769147638434</v>
+        <v>0.1207758743597886</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1997852323901839</v>
+        <v>0.3764863800456197</v>
       </c>
       <c r="M2">
-        <v>0.4561108599900692</v>
+        <v>0.5208874751191601</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.243588273982766</v>
+        <v>2.281277830105239</v>
       </c>
       <c r="C3">
-        <v>0.5965733304901448</v>
+        <v>0.2900822958442575</v>
       </c>
       <c r="D3">
-        <v>0.01867046020239371</v>
+        <v>0.00851135298239214</v>
       </c>
       <c r="E3">
-        <v>0.02282947883624775</v>
+        <v>0.04606989804937722</v>
       </c>
       <c r="F3">
-        <v>2.97543705923843</v>
+        <v>4.356787725242626</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I3">
-        <v>1.775763007991486</v>
+        <v>2.653196933476522</v>
       </c>
       <c r="J3">
-        <v>0.06309339975699291</v>
+        <v>0.1208226258831386</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1847220013295612</v>
+        <v>0.3750905753880787</v>
       </c>
       <c r="M3">
-        <v>0.403391164309717</v>
+        <v>0.5113213601050717</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.050204833925648</v>
+        <v>2.243105082430304</v>
       </c>
       <c r="C4">
-        <v>0.5392418205341869</v>
+        <v>0.2758938340195982</v>
       </c>
       <c r="D4">
-        <v>0.01683715682018772</v>
+        <v>0.007889797133564969</v>
       </c>
       <c r="E4">
-        <v>0.02224229576784786</v>
+        <v>0.04585534650246803</v>
       </c>
       <c r="F4">
-        <v>2.860947372451065</v>
+        <v>4.340096582800498</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I4">
-        <v>1.723079962235374</v>
+        <v>2.646304947745094</v>
       </c>
       <c r="J4">
-        <v>0.06336740451284961</v>
+        <v>0.1208522345659966</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1757727149688719</v>
+        <v>0.3744008067490796</v>
       </c>
       <c r="M4">
-        <v>0.3716985899992125</v>
+        <v>0.5057553019092182</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.97220850559836</v>
+        <v>2.227925915643425</v>
       </c>
       <c r="C5">
-        <v>0.5161033025995323</v>
+        <v>0.2701617096817017</v>
       </c>
       <c r="D5">
-        <v>0.01610448623053884</v>
+        <v>0.007635807814867945</v>
       </c>
       <c r="E5">
-        <v>0.02200424540666024</v>
+        <v>0.04576668139385109</v>
       </c>
       <c r="F5">
-        <v>2.815539497887258</v>
+        <v>4.333761774287154</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I5">
-        <v>1.702318046643256</v>
+        <v>2.6437541600136</v>
       </c>
       <c r="J5">
-        <v>0.06348067906346544</v>
+        <v>0.1208645252951195</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1721953065551887</v>
+        <v>0.3741618199001024</v>
       </c>
       <c r="M5">
-        <v>0.3589361587012547</v>
+        <v>0.5035644518145617</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.959303229297461</v>
+        <v>2.225428168320207</v>
       </c>
       <c r="C6">
-        <v>0.5122737330040081</v>
+        <v>0.2692128896897259</v>
       </c>
       <c r="D6">
-        <v>0.01598363242863599</v>
+        <v>0.007593588966432918</v>
       </c>
       <c r="E6">
-        <v>0.02196477867890589</v>
+        <v>0.04575188376761119</v>
       </c>
       <c r="F6">
-        <v>2.808071744095486</v>
+        <v>4.332738043959338</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I6">
-        <v>1.698911536075585</v>
+        <v>2.643346144090216</v>
       </c>
       <c r="J6">
-        <v>0.06349958544062861</v>
+        <v>0.1208665796857797</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.171605316655814</v>
+        <v>0.3741246802492526</v>
       </c>
       <c r="M6">
-        <v>0.3568256878307281</v>
+        <v>0.5032053361788797</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.049149805134732</v>
+        <v>2.242898846328274</v>
       </c>
       <c r="C7">
-        <v>0.5389289027535824</v>
+        <v>0.2758163275447032</v>
       </c>
       <c r="D7">
-        <v>0.01682722036908402</v>
+        <v>0.007886374663616635</v>
       </c>
       <c r="E7">
-        <v>0.02223908094583571</v>
+        <v>0.04585415574389984</v>
       </c>
       <c r="F7">
-        <v>2.860330078630767</v>
+        <v>4.340009260652664</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I7">
-        <v>1.722797175343047</v>
+        <v>2.646269504556926</v>
       </c>
       <c r="J7">
-        <v>0.0633689256481933</v>
+        <v>0.1208523994145505</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1757241947538546</v>
+        <v>0.3743974131747123</v>
       </c>
       <c r="M7">
-        <v>0.3715258761776639</v>
+        <v>0.5057254420653408</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.453005216276836</v>
+        <v>2.323298893214201</v>
       </c>
       <c r="C8">
-        <v>0.6586197020662894</v>
+        <v>0.3053940953900565</v>
       </c>
       <c r="D8">
-        <v>0.02068262702935897</v>
+        <v>0.009172393257621536</v>
       </c>
       <c r="E8">
-        <v>0.02346159036351736</v>
+        <v>0.04629466124676185</v>
       </c>
       <c r="F8">
-        <v>3.102191341496649</v>
+        <v>4.376199182011021</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I8">
-        <v>1.834568305248538</v>
+        <v>2.661435006594331</v>
       </c>
       <c r="J8">
-        <v>0.06280657007277224</v>
+        <v>0.1207918055788375</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1945255737489049</v>
+        <v>0.3759704138315385</v>
       </c>
       <c r="M8">
-        <v>0.4377812606249023</v>
+        <v>0.5175252480542909</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.279104739247998</v>
+        <v>2.49286076077226</v>
       </c>
       <c r="C9">
-        <v>0.9033770518497306</v>
+        <v>0.3650031772403395</v>
       </c>
       <c r="D9">
-        <v>0.02889179590102486</v>
+        <v>0.0116770430952684</v>
       </c>
       <c r="E9">
-        <v>0.02593695532665663</v>
+        <v>0.04712050048039718</v>
       </c>
       <c r="F9">
-        <v>3.625150250646072</v>
+        <v>4.462026099751427</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I9">
-        <v>2.081057190501184</v>
+        <v>2.69938296811074</v>
       </c>
       <c r="J9">
-        <v>0.06175596489324198</v>
+        <v>0.1206802386826071</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2340651929801538</v>
+        <v>0.3803811184195354</v>
       </c>
       <c r="M9">
-        <v>0.5739799747415759</v>
+        <v>0.5431064292208774</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.915175212475617</v>
+        <v>2.624731774308316</v>
       </c>
       <c r="C10">
-        <v>1.092187040307124</v>
+        <v>0.4098143013106892</v>
       </c>
       <c r="D10">
-        <v>0.03550754515689647</v>
+        <v>0.01351084156434013</v>
       </c>
       <c r="E10">
-        <v>0.02784183081974234</v>
+        <v>0.04770489773863495</v>
       </c>
       <c r="F10">
-        <v>4.047944960812487</v>
+        <v>4.534258423257057</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I10">
-        <v>2.283581338270963</v>
+        <v>2.732336418376107</v>
       </c>
       <c r="J10">
-        <v>0.06101730540307249</v>
+        <v>0.1206028164659112</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2652020357409697</v>
+        <v>0.3844296206008408</v>
       </c>
       <c r="M10">
-        <v>0.6792767584415884</v>
+        <v>0.5633946753979586</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.213020979690953</v>
+        <v>2.686317745346344</v>
       </c>
       <c r="C11">
-        <v>1.180777487801777</v>
+        <v>0.4304290492360678</v>
       </c>
       <c r="D11">
-        <v>0.03869391110882958</v>
+        <v>0.01434460217728883</v>
       </c>
       <c r="E11">
-        <v>0.02873741681654618</v>
+        <v>0.04796608113082357</v>
       </c>
       <c r="F11">
-        <v>4.25095855567335</v>
+        <v>4.569137325633534</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I11">
-        <v>2.381600477330196</v>
+        <v>2.748444690372992</v>
       </c>
       <c r="J11">
-        <v>0.06068894550598869</v>
+        <v>0.1205686085023285</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2799386597169899</v>
+        <v>0.3864468418668849</v>
       </c>
       <c r="M11">
-        <v>0.7286791419491649</v>
+        <v>0.5729501065158615</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.327236420971474</v>
+        <v>2.709868976687403</v>
       </c>
       <c r="C12">
-        <v>1.214784748471914</v>
+        <v>0.4382689693152884</v>
       </c>
       <c r="D12">
-        <v>0.03993082940193204</v>
+        <v>0.0146603325096919</v>
       </c>
       <c r="E12">
-        <v>0.02908174803948871</v>
+        <v>0.04806432783297154</v>
       </c>
       <c r="F12">
-        <v>4.329592031477063</v>
+        <v>4.582637475784765</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I12">
-        <v>2.419683597782964</v>
+        <v>2.754706332899161</v>
       </c>
       <c r="J12">
-        <v>0.06056576041227824</v>
+        <v>0.1205558026801987</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2856127188258597</v>
+        <v>0.3872359401601955</v>
       </c>
       <c r="M12">
-        <v>0.7476376341077469</v>
+        <v>0.5766154731498006</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.302570996739632</v>
+        <v>2.704786565057248</v>
       </c>
       <c r="C13">
-        <v>1.207438967819257</v>
+        <v>0.4365790015310722</v>
       </c>
       <c r="D13">
-        <v>0.03966300317841842</v>
+        <v>0.01459233311491914</v>
       </c>
       <c r="E13">
-        <v>0.02900734133934968</v>
+        <v>0.04804319770104826</v>
       </c>
       <c r="F13">
-        <v>4.312574946509017</v>
+        <v>4.579716949586611</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I13">
-        <v>2.411436722205437</v>
+        <v>2.753350563159572</v>
       </c>
       <c r="J13">
-        <v>0.06059223798706848</v>
+        <v>0.1205585540209619</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.284386348368642</v>
+        <v>0.3870648723605399</v>
       </c>
       <c r="M13">
-        <v>0.743542819795195</v>
+        <v>0.5758239830789122</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.222387657445609</v>
+        <v>2.688250708778924</v>
       </c>
       <c r="C14">
-        <v>1.183565620053287</v>
+        <v>0.4310733686547223</v>
       </c>
       <c r="D14">
-        <v>0.03879503506308879</v>
+        <v>0.01437057705015832</v>
       </c>
       <c r="E14">
-        <v>0.02876563470954618</v>
+        <v>0.04797417705637219</v>
       </c>
       <c r="F14">
-        <v>4.257391204092983</v>
+        <v>4.570242123348379</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I14">
-        <v>2.384713515196083</v>
+        <v>2.748956590733457</v>
       </c>
       <c r="J14">
-        <v>0.06067878741908195</v>
+        <v>0.1205675519788452</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2804035214603573</v>
+        <v>0.3865112561200164</v>
       </c>
       <c r="M14">
-        <v>0.730233624004704</v>
+        <v>0.5732507176793931</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.173465576641661</v>
+        <v>2.678151976234631</v>
       </c>
       <c r="C15">
-        <v>1.169004708415059</v>
+        <v>0.4277053952940264</v>
       </c>
       <c r="D15">
-        <v>0.03826748424419435</v>
+        <v>0.01423474748310127</v>
       </c>
       <c r="E15">
-        <v>0.02861829143640016</v>
+        <v>0.04793181463203755</v>
       </c>
       <c r="F15">
-        <v>4.223825384590242</v>
+        <v>4.564476633811466</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I15">
-        <v>2.36847428878383</v>
+        <v>2.746286257819804</v>
       </c>
       <c r="J15">
-        <v>0.06073195412140553</v>
+        <v>0.1205730828359335</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2779764786645273</v>
+        <v>0.3861754340227179</v>
       </c>
       <c r="M15">
-        <v>0.7221151439433129</v>
+        <v>0.5716806311213389</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.895898225050303</v>
+        <v>2.620739149363658</v>
       </c>
       <c r="C16">
-        <v>1.086457684808863</v>
+        <v>0.4084717483320901</v>
       </c>
       <c r="D16">
-        <v>0.03530326811290507</v>
+        <v>0.01345635014524049</v>
       </c>
       <c r="E16">
-        <v>0.02778396995694798</v>
+        <v>0.04768773605483112</v>
       </c>
       <c r="F16">
-        <v>4.03491069333117</v>
+        <v>4.532019805758296</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I16">
-        <v>2.277303848782353</v>
+        <v>2.731306285836766</v>
       </c>
       <c r="J16">
-        <v>0.06103892311805326</v>
+        <v>0.1206050726096439</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2642514134771119</v>
+        <v>0.3843013208000627</v>
       </c>
       <c r="M16">
-        <v>0.6760813017473524</v>
+        <v>0.5627767715149687</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.727933503145096</v>
+        <v>2.585927508899147</v>
       </c>
       <c r="C17">
-        <v>1.036557283325692</v>
+        <v>0.3967317730724744</v>
       </c>
       <c r="D17">
-        <v>0.03353336223855052</v>
+        <v>0.0129787625812412</v>
       </c>
       <c r="E17">
-        <v>0.02728025535539924</v>
+        <v>0.0475368166620127</v>
       </c>
       <c r="F17">
-        <v>3.921901600201693</v>
+        <v>4.512627241172794</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I17">
-        <v>2.222961761379324</v>
+        <v>2.722403564886775</v>
       </c>
       <c r="J17">
-        <v>0.06122923625326648</v>
+        <v>0.1206249582104229</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2559857148420974</v>
+        <v>0.3831965561835915</v>
       </c>
       <c r="M17">
-        <v>0.6482491901359069</v>
+        <v>0.5573981062948192</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.632110285095166</v>
+        <v>2.566055089040617</v>
       </c>
       <c r="C18">
-        <v>1.008105180254177</v>
+        <v>0.3900008627708758</v>
       </c>
       <c r="D18">
-        <v>0.03253167184828953</v>
+        <v>0.01270402106389668</v>
       </c>
       <c r="E18">
-        <v>0.02699319701509939</v>
+        <v>0.04744957226347424</v>
       </c>
       <c r="F18">
-        <v>3.857892417093183</v>
+        <v>4.501663180193333</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I18">
-        <v>2.192252069237213</v>
+        <v>2.717388082092938</v>
       </c>
       <c r="J18">
-        <v>0.06133941622676553</v>
+        <v>0.1206364909652589</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2512846137630191</v>
+        <v>0.3825776483508747</v>
       </c>
       <c r="M18">
-        <v>0.6323799636887273</v>
+        <v>0.5543351425186884</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.599795280048909</v>
+        <v>2.559352437766449</v>
       </c>
       <c r="C19">
-        <v>0.9985125732756046</v>
+        <v>0.387725589271497</v>
       </c>
       <c r="D19">
-        <v>0.03219518104424424</v>
+        <v>0.0126109884093637</v>
       </c>
       <c r="E19">
-        <v>0.02689643325597135</v>
+        <v>0.04741995693378254</v>
       </c>
       <c r="F19">
-        <v>3.836383898231389</v>
+        <v>4.497983521173126</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I19">
-        <v>2.181944786744751</v>
+        <v>2.715707948592936</v>
       </c>
       <c r="J19">
-        <v>0.06137684291090673</v>
+        <v>0.1206404120125826</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2497017021380117</v>
+        <v>0.3823709354275877</v>
       </c>
       <c r="M19">
-        <v>0.627029813477904</v>
+        <v>0.5533033481178933</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.745730915888544</v>
+        <v>2.589617708472645</v>
       </c>
       <c r="C20">
-        <v>1.041842977268743</v>
+        <v>0.3979792730550002</v>
       </c>
       <c r="D20">
-        <v>0.03372005033719461</v>
+        <v>0.01302960684535037</v>
       </c>
       <c r="E20">
-        <v>0.02733359395901402</v>
+        <v>0.04755292769063502</v>
       </c>
       <c r="F20">
-        <v>3.933827576120905</v>
+        <v>4.514671932615784</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I20">
-        <v>2.228689206358823</v>
+        <v>2.723340386696407</v>
       </c>
       <c r="J20">
-        <v>0.06120890253705502</v>
+        <v>0.1206228314952149</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2568600385522473</v>
+        <v>0.3833124503025118</v>
       </c>
       <c r="M20">
-        <v>0.6511973351390878</v>
+        <v>0.5579674966760706</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.245898916334227</v>
+        <v>2.693101447043432</v>
       </c>
       <c r="C21">
-        <v>1.19056469540476</v>
+        <v>0.4326895916016156</v>
       </c>
       <c r="D21">
-        <v>0.03904911314980097</v>
+        <v>0.01443571155624568</v>
       </c>
       <c r="E21">
-        <v>0.02883648000606787</v>
+        <v>0.04799446784389971</v>
       </c>
       <c r="F21">
-        <v>4.273550426720874</v>
+        <v>4.573017163112809</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I21">
-        <v>2.392535544926645</v>
+        <v>2.750242807345714</v>
       </c>
       <c r="J21">
-        <v>0.06065333381430427</v>
+        <v>0.1205649050244619</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2815707357163859</v>
+        <v>0.3866731823171108</v>
       </c>
       <c r="M21">
-        <v>0.7341357473434371</v>
+        <v>0.574005274148945</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.581226355509614</v>
+        <v>2.762074601580537</v>
       </c>
       <c r="C22">
-        <v>1.290484948237463</v>
+        <v>0.4555706570098437</v>
       </c>
       <c r="D22">
-        <v>0.0427114595683733</v>
+        <v>0.01535473282939392</v>
       </c>
       <c r="E22">
-        <v>0.02984955942323086</v>
+        <v>0.04827921174058325</v>
       </c>
       <c r="F22">
-        <v>4.505942746207751</v>
+        <v>4.612853542821341</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I22">
-        <v>2.505312689555893</v>
+        <v>2.768768637299601</v>
       </c>
       <c r="J22">
-        <v>0.06029702258249503</v>
+        <v>0.1205279105167931</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2982726838732077</v>
+        <v>0.3890166102817574</v>
       </c>
       <c r="M22">
-        <v>0.7898228599155601</v>
+        <v>0.5847604620902374</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.401407905890949</v>
+        <v>2.725139565077768</v>
       </c>
       <c r="C23">
-        <v>1.236880142648033</v>
+        <v>0.4433405131272821</v>
       </c>
       <c r="D23">
-        <v>0.04073856054210978</v>
+        <v>0.01486420698550717</v>
       </c>
       <c r="E23">
-        <v>0.02930565788962181</v>
+        <v>0.04812758464713074</v>
       </c>
       <c r="F23">
-        <v>4.380881405425924</v>
+        <v>4.591435569027396</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I23">
-        <v>2.444556956926704</v>
+        <v>2.758794358560564</v>
       </c>
       <c r="J23">
-        <v>0.06048654923166397</v>
+        <v>0.1205475753107654</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2893038762421867</v>
+        <v>0.3877524351300679</v>
       </c>
       <c r="M23">
-        <v>0.7599532023687843</v>
+        <v>0.5789951740951622</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.737682409839351</v>
+        <v>2.587948929285346</v>
       </c>
       <c r="C24">
-        <v>1.039452584297123</v>
+        <v>0.3974152205466908</v>
       </c>
       <c r="D24">
-        <v>0.03363559963115392</v>
+        <v>0.01300662068814518</v>
       </c>
       <c r="E24">
-        <v>0.02730947175832998</v>
+        <v>0.04754564538702155</v>
       </c>
       <c r="F24">
-        <v>3.928432864618031</v>
+        <v>4.513746951569146</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I24">
-        <v>2.226098179243849</v>
+        <v>2.722916529407613</v>
       </c>
       <c r="J24">
-        <v>0.06121809302693126</v>
+        <v>0.1206237926712261</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2564645989121601</v>
+        <v>0.3832600039978189</v>
       </c>
       <c r="M24">
-        <v>0.6498640707489756</v>
+        <v>0.5577099840156379</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.051167007875961</v>
+        <v>2.445711987294374</v>
       </c>
       <c r="C25">
-        <v>0.8358132743244937</v>
+        <v>0.348701539680178</v>
       </c>
       <c r="D25">
-        <v>0.02658348453950765</v>
+        <v>0.0110008872604368</v>
       </c>
       <c r="E25">
-        <v>0.0252552706385103</v>
+        <v>0.0469010725628225</v>
       </c>
       <c r="F25">
-        <v>3.477607025457246</v>
+        <v>4.437204897777747</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I25">
-        <v>2.010991026073015</v>
+        <v>2.688231168493758</v>
       </c>
       <c r="J25">
-        <v>0.06203447433212461</v>
+        <v>0.1207096310574554</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2230385551007856</v>
+        <v>0.3790459967362381</v>
       </c>
       <c r="M25">
-        <v>0.5363275898956061</v>
+        <v>0.5359241212781356</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_98/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_98/res_line/pl_mw.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.345887016753352</v>
+        <v>2.5644640259884</v>
       </c>
       <c r="C2">
-        <v>0.313515615568889</v>
+        <v>0.6916348405088684</v>
       </c>
       <c r="D2">
-        <v>0.009519520851121399</v>
+        <v>0.02176494598585776</v>
       </c>
       <c r="E2">
-        <v>0.046411415139886</v>
+        <v>0.02379684873169019</v>
       </c>
       <c r="F2">
-        <v>4.387006073177076</v>
+        <v>3.170720908663597</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I2">
-        <v>2.666097054353429</v>
+        <v>1.866541388117966</v>
       </c>
       <c r="J2">
-        <v>0.1207758743597886</v>
+        <v>0.06265769147629041</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3764863800456197</v>
+        <v>0.1997852323901554</v>
       </c>
       <c r="M2">
-        <v>0.5208874751191601</v>
+        <v>0.4561108599900834</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.281277830105239</v>
+        <v>2.24358827398305</v>
       </c>
       <c r="C3">
-        <v>0.2900822958442575</v>
+        <v>0.5965733304898606</v>
       </c>
       <c r="D3">
-        <v>0.00851135298239214</v>
+        <v>0.01867046020248253</v>
       </c>
       <c r="E3">
-        <v>0.04606989804937722</v>
+        <v>0.02282947883620601</v>
       </c>
       <c r="F3">
-        <v>4.356787725242626</v>
+        <v>2.975437059238445</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
-        <v>2.653196933476522</v>
+        <v>1.775763007991472</v>
       </c>
       <c r="J3">
-        <v>0.1208226258831386</v>
+        <v>0.0630933997569898</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3750905753880787</v>
+        <v>0.1847220013296109</v>
       </c>
       <c r="M3">
-        <v>0.5113213601050717</v>
+        <v>0.4033911643097312</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.243105082430304</v>
+        <v>2.050204833925875</v>
       </c>
       <c r="C4">
-        <v>0.2758938340195982</v>
+        <v>0.5392418205338743</v>
       </c>
       <c r="D4">
-        <v>0.007889797133564969</v>
+        <v>0.01683715682002429</v>
       </c>
       <c r="E4">
-        <v>0.04585534650246803</v>
+        <v>0.02224229576779191</v>
       </c>
       <c r="F4">
-        <v>4.340096582800498</v>
+        <v>2.860947372451108</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
-        <v>2.646304947745094</v>
+        <v>1.723079962235389</v>
       </c>
       <c r="J4">
-        <v>0.1208522345659966</v>
+        <v>0.06336740451295819</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3744008067490796</v>
+        <v>0.1757727149689075</v>
       </c>
       <c r="M4">
-        <v>0.5057553019092182</v>
+        <v>0.3716985899992054</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.227925915643425</v>
+        <v>1.972208505598417</v>
       </c>
       <c r="C5">
-        <v>0.2701617096817017</v>
+        <v>0.5161033025997597</v>
       </c>
       <c r="D5">
-        <v>0.007635807814867945</v>
+        <v>0.01610448623072713</v>
       </c>
       <c r="E5">
-        <v>0.04576668139385109</v>
+        <v>0.02200424540671087</v>
       </c>
       <c r="F5">
-        <v>4.333761774287154</v>
+        <v>2.815539497887229</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
-        <v>2.6437541600136</v>
+        <v>1.702318046643242</v>
       </c>
       <c r="J5">
-        <v>0.1208645252951195</v>
+        <v>0.06348067906349475</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.3741618199001024</v>
+        <v>0.1721953065551602</v>
       </c>
       <c r="M5">
-        <v>0.5035644518145617</v>
+        <v>0.3589361587012405</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.225428168320207</v>
+        <v>1.959303229297461</v>
       </c>
       <c r="C6">
-        <v>0.2692128896897259</v>
+        <v>0.5122737330035818</v>
       </c>
       <c r="D6">
-        <v>0.007593588966432918</v>
+        <v>0.01598363242862533</v>
       </c>
       <c r="E6">
-        <v>0.04575188376761119</v>
+        <v>0.02196477867890412</v>
       </c>
       <c r="F6">
-        <v>4.332738043959338</v>
+        <v>2.8080717440955</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
-        <v>2.643346144090216</v>
+        <v>1.698911536075585</v>
       </c>
       <c r="J6">
-        <v>0.1208665796857797</v>
+        <v>0.06349958544060974</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.3741246802492526</v>
+        <v>0.171605316655814</v>
       </c>
       <c r="M6">
-        <v>0.5032053361788797</v>
+        <v>0.3568256878307281</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.242898846328274</v>
+        <v>2.049149805134959</v>
       </c>
       <c r="C7">
-        <v>0.2758163275447032</v>
+        <v>0.5389289027536108</v>
       </c>
       <c r="D7">
-        <v>0.007886374663616635</v>
+        <v>0.01682722036918349</v>
       </c>
       <c r="E7">
-        <v>0.04585415574389984</v>
+        <v>0.02223908094583127</v>
       </c>
       <c r="F7">
-        <v>4.340009260652664</v>
+        <v>2.860330078630739</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
-        <v>2.646269504556926</v>
+        <v>1.722797175343075</v>
       </c>
       <c r="J7">
-        <v>0.1208523994145505</v>
+        <v>0.06336892564815955</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3743974131747123</v>
+        <v>0.1757241947538049</v>
       </c>
       <c r="M7">
-        <v>0.5057254420653408</v>
+        <v>0.3715258761776568</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.323298893214201</v>
+        <v>2.453005216276779</v>
       </c>
       <c r="C8">
-        <v>0.3053940953900565</v>
+        <v>0.6586197020662325</v>
       </c>
       <c r="D8">
-        <v>0.009172393257621536</v>
+        <v>0.02068262702920975</v>
       </c>
       <c r="E8">
-        <v>0.04629466124676185</v>
+        <v>0.02346159036353512</v>
       </c>
       <c r="F8">
-        <v>4.376199182011021</v>
+        <v>3.102191341496678</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
-        <v>2.661435006594331</v>
+        <v>1.834568305248553</v>
       </c>
       <c r="J8">
-        <v>0.1207918055788375</v>
+        <v>0.06280657007270385</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3759704138315385</v>
+        <v>0.1945255737488409</v>
       </c>
       <c r="M8">
-        <v>0.5175252480542909</v>
+        <v>0.4377812606248952</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.49286076077226</v>
+        <v>3.279104739248055</v>
       </c>
       <c r="C9">
-        <v>0.3650031772403395</v>
+        <v>0.903377051849958</v>
       </c>
       <c r="D9">
-        <v>0.0116770430952684</v>
+        <v>0.02889179590102486</v>
       </c>
       <c r="E9">
-        <v>0.04712050048039718</v>
+        <v>0.02593695532668505</v>
       </c>
       <c r="F9">
-        <v>4.462026099751427</v>
+        <v>3.625150250646072</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
-        <v>2.69938296811074</v>
+        <v>2.081057190501198</v>
       </c>
       <c r="J9">
-        <v>0.1206802386826071</v>
+        <v>0.06175596489322821</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.3803811184195354</v>
+        <v>0.2340651929800686</v>
       </c>
       <c r="M9">
-        <v>0.5431064292208774</v>
+        <v>0.573979974741583</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.624731774308316</v>
+        <v>3.915175212475617</v>
       </c>
       <c r="C10">
-        <v>0.4098143013106892</v>
+        <v>1.092187040307181</v>
       </c>
       <c r="D10">
-        <v>0.01351084156434013</v>
+        <v>0.03550754515686805</v>
       </c>
       <c r="E10">
-        <v>0.04770489773863495</v>
+        <v>0.02784183081976277</v>
       </c>
       <c r="F10">
-        <v>4.534258423257057</v>
+        <v>4.047944960812515</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
-        <v>2.732336418376107</v>
+        <v>2.283581338270977</v>
       </c>
       <c r="J10">
-        <v>0.1206028164659112</v>
+        <v>0.06101730540320416</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.3844296206008408</v>
+        <v>0.2652020357411402</v>
       </c>
       <c r="M10">
-        <v>0.5633946753979586</v>
+        <v>0.6792767584415955</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.686317745346344</v>
+        <v>4.213020979691066</v>
       </c>
       <c r="C11">
-        <v>0.4304290492360678</v>
+        <v>1.180777487801492</v>
       </c>
       <c r="D11">
-        <v>0.01434460217728883</v>
+        <v>0.03869391110877984</v>
       </c>
       <c r="E11">
-        <v>0.04796608113082357</v>
+        <v>0.02873741681648578</v>
       </c>
       <c r="F11">
-        <v>4.569137325633534</v>
+        <v>4.25095855567335</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
-        <v>2.748444690372992</v>
+        <v>2.381600477330224</v>
       </c>
       <c r="J11">
-        <v>0.1205686085023285</v>
+        <v>0.06068894550605641</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.3864468418668849</v>
+        <v>0.279938659717061</v>
       </c>
       <c r="M11">
-        <v>0.5729501065158615</v>
+        <v>0.7286791419491649</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.709868976687403</v>
+        <v>4.327236420971531</v>
       </c>
       <c r="C12">
-        <v>0.4382689693152884</v>
+        <v>1.214784748471686</v>
       </c>
       <c r="D12">
-        <v>0.0146603325096919</v>
+        <v>0.03993082940178283</v>
       </c>
       <c r="E12">
-        <v>0.04806432783297154</v>
+        <v>0.02908174803945496</v>
       </c>
       <c r="F12">
-        <v>4.582637475784765</v>
+        <v>4.329592031477091</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I12">
-        <v>2.754706332899161</v>
+        <v>2.419683597782978</v>
       </c>
       <c r="J12">
-        <v>0.1205558026801987</v>
+        <v>0.06056576041237149</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.3872359401601955</v>
+        <v>0.2856127188258739</v>
       </c>
       <c r="M12">
-        <v>0.5766154731498006</v>
+        <v>0.7476376341077469</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.704786565057248</v>
+        <v>4.302570996739689</v>
       </c>
       <c r="C13">
-        <v>0.4365790015310722</v>
+        <v>1.207438967818746</v>
       </c>
       <c r="D13">
-        <v>0.01459233311491914</v>
+        <v>0.03966300317854632</v>
       </c>
       <c r="E13">
-        <v>0.04804319770104826</v>
+        <v>0.02900734133934257</v>
       </c>
       <c r="F13">
-        <v>4.579716949586611</v>
+        <v>4.312574946509073</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
-        <v>2.753350563159572</v>
+        <v>2.411436722205451</v>
       </c>
       <c r="J13">
-        <v>0.1205585540209619</v>
+        <v>0.0605922379872692</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.3870648723605399</v>
+        <v>0.2843863483686704</v>
       </c>
       <c r="M13">
-        <v>0.5758239830789122</v>
+        <v>0.7435428197952021</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.688250708778924</v>
+        <v>4.222387657445552</v>
       </c>
       <c r="C14">
-        <v>0.4310733686547223</v>
+        <v>1.183565620053002</v>
       </c>
       <c r="D14">
-        <v>0.01437057705015832</v>
+        <v>0.03879503506330195</v>
       </c>
       <c r="E14">
-        <v>0.04797417705637219</v>
+        <v>0.02876563470957016</v>
       </c>
       <c r="F14">
-        <v>4.570242123348379</v>
+        <v>4.257391204092983</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
-        <v>2.748956590733457</v>
+        <v>2.384713515196097</v>
       </c>
       <c r="J14">
-        <v>0.1205675519788452</v>
+        <v>0.06067878741919275</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.3865112561200164</v>
+        <v>0.2804035214604426</v>
       </c>
       <c r="M14">
-        <v>0.5732507176793931</v>
+        <v>0.7302336240047325</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.678151976234631</v>
+        <v>4.173465576641718</v>
       </c>
       <c r="C15">
-        <v>0.4277053952940264</v>
+        <v>1.169004708415002</v>
       </c>
       <c r="D15">
-        <v>0.01423474748310127</v>
+        <v>0.0382674842440025</v>
       </c>
       <c r="E15">
-        <v>0.04793181463203755</v>
+        <v>0.02861829143638417</v>
       </c>
       <c r="F15">
-        <v>4.564476633811466</v>
+        <v>4.223825384590214</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
-        <v>2.746286257819804</v>
+        <v>2.36847428878383</v>
       </c>
       <c r="J15">
-        <v>0.1205730828359335</v>
+        <v>0.06073195412142152</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.3861754340227179</v>
+        <v>0.2779764786644137</v>
       </c>
       <c r="M15">
-        <v>0.5716806311213389</v>
+        <v>0.7221151439433129</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.620739149363658</v>
+        <v>3.89589822505036</v>
       </c>
       <c r="C16">
-        <v>0.4084717483320901</v>
+        <v>1.086457684808352</v>
       </c>
       <c r="D16">
-        <v>0.01345635014524049</v>
+        <v>0.03530326811293349</v>
       </c>
       <c r="E16">
-        <v>0.04768773605483112</v>
+        <v>0.02778396995699239</v>
       </c>
       <c r="F16">
-        <v>4.532019805758296</v>
+        <v>4.034910693331199</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
-        <v>2.731306285836766</v>
+        <v>2.277303848782367</v>
       </c>
       <c r="J16">
-        <v>0.1206050726096439</v>
+        <v>0.06103892311802461</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.3843013208000627</v>
+        <v>0.2642514134770124</v>
       </c>
       <c r="M16">
-        <v>0.5627767715149687</v>
+        <v>0.6760813017473524</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.585927508899147</v>
+        <v>3.727933503145039</v>
       </c>
       <c r="C17">
-        <v>0.3967317730724744</v>
+        <v>1.036557283325862</v>
       </c>
       <c r="D17">
-        <v>0.0129787625812412</v>
+        <v>0.03353336223854342</v>
       </c>
       <c r="E17">
-        <v>0.0475368166620127</v>
+        <v>0.02728025535543299</v>
       </c>
       <c r="F17">
-        <v>4.512627241172794</v>
+        <v>3.921901600201693</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
-        <v>2.722403564886775</v>
+        <v>2.222961761379338</v>
       </c>
       <c r="J17">
-        <v>0.1206249582104229</v>
+        <v>0.06122923625310994</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.3831965561835915</v>
+        <v>0.2559857148420832</v>
       </c>
       <c r="M17">
-        <v>0.5573981062948192</v>
+        <v>0.6482491901359069</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.566055089040617</v>
+        <v>3.632110285095223</v>
       </c>
       <c r="C18">
-        <v>0.3900008627708758</v>
+        <v>1.00810518025429</v>
       </c>
       <c r="D18">
-        <v>0.01270402106389668</v>
+        <v>0.03253167184790584</v>
       </c>
       <c r="E18">
-        <v>0.04744957226347424</v>
+        <v>0.02699319701517666</v>
       </c>
       <c r="F18">
-        <v>4.501663180193333</v>
+        <v>3.857892417093211</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
-        <v>2.717388082092938</v>
+        <v>2.192252069237227</v>
       </c>
       <c r="J18">
-        <v>0.1206364909652589</v>
+        <v>0.06133941622678019</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.3825776483508747</v>
+        <v>0.2512846137629765</v>
       </c>
       <c r="M18">
-        <v>0.5543351425186884</v>
+        <v>0.6323799636887344</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.559352437766449</v>
+        <v>3.599795280048966</v>
       </c>
       <c r="C19">
-        <v>0.387725589271497</v>
+        <v>0.9985125732753772</v>
       </c>
       <c r="D19">
-        <v>0.0126109884093637</v>
+        <v>0.03219518104398844</v>
       </c>
       <c r="E19">
-        <v>0.04741995693378254</v>
+        <v>0.02689643325590119</v>
       </c>
       <c r="F19">
-        <v>4.497983521173126</v>
+        <v>3.836383898231418</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
-        <v>2.715707948592936</v>
+        <v>2.181944786744765</v>
       </c>
       <c r="J19">
-        <v>0.1206404120125826</v>
+        <v>0.06137684291083989</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.3823709354275877</v>
+        <v>0.2497017021382106</v>
       </c>
       <c r="M19">
-        <v>0.5533033481178933</v>
+        <v>0.6270298134779111</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.589617708472645</v>
+        <v>3.745730915888487</v>
       </c>
       <c r="C20">
-        <v>0.3979792730550002</v>
+        <v>1.041842977268914</v>
       </c>
       <c r="D20">
-        <v>0.01302960684535037</v>
+        <v>0.03372005033719461</v>
       </c>
       <c r="E20">
-        <v>0.04755292769063502</v>
+        <v>0.02733359395902202</v>
       </c>
       <c r="F20">
-        <v>4.514671932615784</v>
+        <v>3.933827576120876</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
-        <v>2.723340386696407</v>
+        <v>2.228689206358837</v>
       </c>
       <c r="J20">
-        <v>0.1206228314952149</v>
+        <v>0.06120890253709343</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.3833124503025118</v>
+        <v>0.2568600385523183</v>
       </c>
       <c r="M20">
-        <v>0.5579674966760706</v>
+        <v>0.6511973351390878</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.693101447043432</v>
+        <v>4.245898916334284</v>
       </c>
       <c r="C21">
-        <v>0.4326895916016156</v>
+        <v>1.190564695404305</v>
       </c>
       <c r="D21">
-        <v>0.01443571155624568</v>
+        <v>0.03904911314982229</v>
       </c>
       <c r="E21">
-        <v>0.04799446784389971</v>
+        <v>0.02883648000602079</v>
       </c>
       <c r="F21">
-        <v>4.573017163112809</v>
+        <v>4.273550426720846</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
-        <v>2.750242807345714</v>
+        <v>2.392535544926645</v>
       </c>
       <c r="J21">
-        <v>0.1205649050244619</v>
+        <v>0.06065333381417326</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.3866731823171108</v>
+        <v>0.281570735716187</v>
       </c>
       <c r="M21">
-        <v>0.574005274148945</v>
+        <v>0.7341357473434229</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.762074601580537</v>
+        <v>4.581226355509784</v>
       </c>
       <c r="C22">
-        <v>0.4555706570098437</v>
+        <v>1.290484948237122</v>
       </c>
       <c r="D22">
-        <v>0.01535473282939392</v>
+        <v>0.04271145956803934</v>
       </c>
       <c r="E22">
-        <v>0.04827921174058325</v>
+        <v>0.02984955942320244</v>
       </c>
       <c r="F22">
-        <v>4.612853542821341</v>
+        <v>4.505942746207722</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
-        <v>2.768768637299601</v>
+        <v>2.505312689555879</v>
       </c>
       <c r="J22">
-        <v>0.1205279105167931</v>
+        <v>0.06029702258245373</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.3890166102817574</v>
+        <v>0.2982726838732077</v>
       </c>
       <c r="M22">
-        <v>0.5847604620902374</v>
+        <v>0.7898228599155601</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.725139565077768</v>
+        <v>4.401407905891006</v>
       </c>
       <c r="C23">
-        <v>0.4433405131272821</v>
+        <v>1.236880142647806</v>
       </c>
       <c r="D23">
-        <v>0.01486420698550717</v>
+        <v>0.04073856054179714</v>
       </c>
       <c r="E23">
-        <v>0.04812758464713074</v>
+        <v>0.02930565788957828</v>
       </c>
       <c r="F23">
-        <v>4.591435569027396</v>
+        <v>4.380881405425953</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
-        <v>2.758794358560564</v>
+        <v>2.444556956926732</v>
       </c>
       <c r="J23">
-        <v>0.1205475753107654</v>
+        <v>0.06048654923164087</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.3877524351300679</v>
+        <v>0.2893038762422719</v>
       </c>
       <c r="M23">
-        <v>0.5789951740951622</v>
+        <v>0.7599532023687843</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.587948929285346</v>
+        <v>3.737682409839408</v>
       </c>
       <c r="C24">
-        <v>0.3974152205466908</v>
+        <v>1.039452584296953</v>
       </c>
       <c r="D24">
-        <v>0.01300662068814518</v>
+        <v>0.03363559963136709</v>
       </c>
       <c r="E24">
-        <v>0.04754564538702155</v>
+        <v>0.02730947175832643</v>
       </c>
       <c r="F24">
-        <v>4.513746951569146</v>
+        <v>3.92843286461806</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
-        <v>2.722916529407613</v>
+        <v>2.226098179243849</v>
       </c>
       <c r="J24">
-        <v>0.1206237926712261</v>
+        <v>0.06121809302705405</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.3832600039978189</v>
+        <v>0.2564645989121459</v>
       </c>
       <c r="M24">
-        <v>0.5577099840156379</v>
+        <v>0.6498640707489898</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.445711987294374</v>
+        <v>3.051167007876131</v>
       </c>
       <c r="C25">
-        <v>0.348701539680178</v>
+        <v>0.8358132743246927</v>
       </c>
       <c r="D25">
-        <v>0.0110008872604368</v>
+        <v>0.02658348453952186</v>
       </c>
       <c r="E25">
-        <v>0.0469010725628225</v>
+        <v>0.02525527063851296</v>
       </c>
       <c r="F25">
-        <v>4.437204897777747</v>
+        <v>3.477607025457218</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
-        <v>2.688231168493758</v>
+        <v>2.010991026073029</v>
       </c>
       <c r="J25">
-        <v>0.1207096310574554</v>
+        <v>0.0620344743322141</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3790459967362381</v>
+        <v>0.223038555100743</v>
       </c>
       <c r="M25">
-        <v>0.5359241212781356</v>
+        <v>0.5363275898956203</v>
       </c>
       <c r="N25">
         <v>0</v>
